--- a/DOCUMENTACIÓN/PREGAME/1. ELICITACIÓN/1.1 Especificación RS/G7_Matriz de Marco de Trabajo HU_V3.1.xlsx
+++ b/DOCUMENTACIÓN/PREGAME/1. ELICITACIÓN/1.1 Especificación RS/G7_Matriz de Marco de Trabajo HU_V3.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberson Constante\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Nueva carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052A5FD7-F217-4B04-9413-BC0C66625C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3297D4E5-9DCB-425D-8953-83CC8CDB42A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20970" yWindow="2670" windowWidth="25950" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,15 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjrqY+abuINnyYLvQRE3STNVOgnAA=="/>
     </ext>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -176,9 +185,6 @@
     <t>El usuario podra acceder a varios botones para hacer el CRUD del vehículo, de acuerdo a su necesidad, logrando cambiar sus datos (marca, modelo,año, precio y disponibilidad)</t>
   </si>
   <si>
-    <t>samantha</t>
-  </si>
-  <si>
     <t xml:space="preserve"> El usuario realizará los cambios pertinentes y estos cambios deben ser reflejados dentro de la base de datos</t>
   </si>
   <si>
@@ -207,9 +213,6 @@
   </si>
   <si>
     <t>Visualizar Repuestos</t>
-  </si>
-  <si>
-    <t>REQ006</t>
   </si>
   <si>
     <t>Cambiar la disponibilidad del repuesto o datos sobre el mismo</t>
@@ -284,19 +287,19 @@
     <t>REQ008</t>
   </si>
   <si>
-    <t>Modificar Datos del cliente</t>
+    <t>Falta de organizacion de informacion de repuestos</t>
   </si>
   <si>
-    <t xml:space="preserve"> El usuario realizará los cambios pertinentes y estos cambios deben ser reflejados dentro de la base de datos y un mensaje "Datos guardados exitosamente"</t>
+    <t>Permitir ingresar los  datos de los repuestos</t>
   </si>
   <si>
-    <t>El usuario podra acceder a varios botones para hacer el CRUD del cliente, de acuerdo a su necesidad, logrando cambiar sus datos (nombre, contraseña)</t>
+    <t>Por medio de un botón después de haber ingresado como administrador podrá agregar  los datos de los repuestos</t>
   </si>
   <si>
-    <t>Modificar los datos o credenciales de un cliente</t>
+    <t>Registro de repuestos</t>
   </si>
   <si>
-    <t xml:space="preserve">Carmbiar datos erróneos sobre el cliente </t>
+    <t>Samantha</t>
   </si>
 </sst>
 </file>
@@ -883,38 +886,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,6 +905,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1261,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1425,7 +1428,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7">
         <v>2</v>
@@ -1437,7 +1440,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>24</v>
@@ -1479,7 +1482,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>32</v>
@@ -1497,38 +1500,38 @@
         <v>27</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="7">
         <v>2</v>
       </c>
       <c r="J8" s="8">
-        <v>44428</v>
+        <v>44385</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1551,7 +1554,7 @@
         <v>38</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I9" s="7">
         <v>2</v>
@@ -1563,7 +1566,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>41</v>
@@ -1575,7 +1578,7 @@
     </row>
     <row r="10" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>44</v>
@@ -1593,121 +1596,121 @@
         <v>47</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
         <v>2</v>
       </c>
       <c r="J10" s="8">
-        <v>44385</v>
+        <v>44428</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>55</v>
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
         <v>2</v>
       </c>
       <c r="J11" s="8">
-        <v>44385</v>
+        <v>44428</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I12" s="7">
         <v>2</v>
       </c>
       <c r="J12" s="8">
-        <v>44428</v>
+        <v>44435</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>87</v>
+        <v>58</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>46</v>
@@ -1716,29 +1719,29 @@
         <v>30</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
         <v>2</v>
       </c>
       <c r="J13" s="8">
-        <v>44428</v>
+        <v>44435</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1840,7 +1843,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="17"/>
@@ -1915,7 +1918,7 @@
     <row r="32" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="1"/>
       <c r="K32" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>23</v>
@@ -1924,17 +1927,17 @@
     <row r="33" spans="9:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" s="1"/>
       <c r="K33" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="9:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I34" s="1"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="9:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7737,7 +7740,17 @@
   <mergeCells count="1">
     <mergeCell ref="B3:O3"/>
   </mergeCells>
-  <conditionalFormatting sqref="L6:L12">
+  <conditionalFormatting sqref="L6:L10 L12:L13">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7747,7 +7760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="L11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7807,8 +7820,8 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="58" t="s">
-        <v>69</v>
+      <c r="B6" s="67" t="s">
+        <v>67</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -7877,12 +7890,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="29"/>
-      <c r="E9" s="59" t="s">
-        <v>70</v>
+      <c r="E9" s="62" t="s">
+        <v>68</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="62" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="43"/>
@@ -7901,13 +7914,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="33"/>
-      <c r="E10" s="60" t="str">
+      <c r="E10" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,5,0)</f>
         <v>administrador</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="60" t="str">
+      <c r="H10" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,11,0)</f>
         <v>Terminado</v>
       </c>
@@ -7953,16 +7966,16 @@
       <c r="A12" s="4"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="33"/>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="62" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="59" t="s">
-        <v>72</v>
+      <c r="H12" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="I12" s="43"/>
       <c r="J12" s="34"/>
@@ -7991,13 +8004,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="33"/>
-      <c r="E13" s="60" t="str">
+      <c r="E13" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,10,0)</f>
         <v>Alta</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="60" t="str">
+      <c r="H13" s="63" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,7,0)</f>
         <v>Roberson</v>
       </c>
@@ -8052,33 +8065,33 @@
       <c r="A15" s="4"/>
       <c r="B15" s="27"/>
       <c r="C15" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="62" t="str">
+        <v>71</v>
+      </c>
+      <c r="D15" s="68" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,3,0)</f>
         <v>Permitir ingresar a todos los usuarios y sus datos pertinentes (nombre, correo, edad)</v>
       </c>
-      <c r="E15" s="48"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="30"/>
       <c r="G15" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="62" t="str">
+        <v>72</v>
+      </c>
+      <c r="H15" s="68" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,4,0)</f>
         <v>Generar una base de datos por medio de mongos DB para agregar a los clientes que realicen sus compras dentro de la agencia</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="30"/>
       <c r="L15" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="61" t="str">
+        <v>73</v>
+      </c>
+      <c r="M15" s="47" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,6,0)</f>
         <v>Por medio de un botón después de haber ingresado como administrador podrá agregar  los datos de un cliente para que su compra sea registrada en la base de datos.</v>
       </c>
-      <c r="N15" s="55"/>
-      <c r="O15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
       <c r="P15" s="31"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -8095,18 +8108,18 @@
       <c r="A16" s="4"/>
       <c r="B16" s="27"/>
       <c r="C16" s="45"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="30"/>
       <c r="G16" s="45"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="53"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
       <c r="K16" s="30"/>
       <c r="L16" s="45"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="53"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
       <c r="P16" s="31"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -8123,18 +8136,18 @@
       <c r="A17" s="4"/>
       <c r="B17" s="27"/>
       <c r="C17" s="46"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="30"/>
       <c r="G17" s="46"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="50"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="30"/>
       <c r="L17" s="46"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="50"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
       <c r="P17" s="31"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -8177,42 +8190,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="27"/>
-      <c r="C19" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="63" t="str">
+      <c r="C19" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="56" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,14,0)</f>
         <v>Registro de clientes</v>
       </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="65"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="58"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="68"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
       <c r="P20" s="31"/>
       <c r="Q20" s="4"/>
     </row>
@@ -8237,29 +8250,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="54" t="str">
+      <c r="C22" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="66" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,12,0)</f>
         <v>Prueba Unitaria de validación en la base de datos, si no conecta a la base de datos mostrar el mensaje "Error de Conexión a la Base de Datos"</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
       <c r="I22" s="30"/>
-      <c r="J22" s="51" t="s">
+      <c r="J22" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="61">
+      <c r="K22" s="49"/>
+      <c r="L22" s="47">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,13,0)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="31"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -8275,19 +8288,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="27"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="53"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="30"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="53"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="52"/>
       <c r="P23" s="31"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -8303,19 +8316,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="50"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="50"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
       <c r="P24" s="31"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -9894,11 +9907,6 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -9915,6 +9923,11 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
